--- a/REGULAR/PENALES, GLORIA.xlsx
+++ b/REGULAR/PENALES, GLORIA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6081BC3D-9B45-4814-81EA-10DC9F4CE81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A898E5-76BC-48B8-B77D-1C38C35352E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="346">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1063,6 +1063,15 @@
   </si>
   <si>
     <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2025</t>
   </si>
 </sst>
 </file>
@@ -1306,7 +1315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1501,6 +1510,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1770,7 +1782,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1787,7 +1799,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K644" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K647" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
@@ -2116,12 +2128,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K644"/>
+  <dimension ref="A2:K647"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3888" topLeftCell="A557" activePane="bottomLeft"/>
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-      <selection pane="bottomLeft" activeCell="F585" sqref="F585"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="3888" topLeftCell="A611"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="C619" sqref="C619:C629"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2280,7 +2292,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>113.47599999999983</v>
+        <v>149.72599999999983</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2290,7 +2302,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>324.88</v>
+        <v>371.13</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2302,11 +2314,15 @@
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
       <c r="D10" s="38"/>
-      <c r="E10" s="13"/>
+      <c r="E10" s="67" t="s">
+        <v>205</v>
+      </c>
       <c r="F10" s="20"/>
       <c r="G10" s="13"/>
       <c r="H10" s="38"/>
-      <c r="I10" s="13"/>
+      <c r="I10" s="67" t="s">
+        <v>205</v>
+      </c>
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
@@ -3025,7 +3041,7 @@
       </c>
       <c r="E42" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>113.47599999999983</v>
+        <v>149.72599999999983</v>
       </c>
       <c r="F42" s="20"/>
       <c r="G42" s="13" t="str">
@@ -3035,7 +3051,7 @@
       <c r="H42" s="38"/>
       <c r="I42" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>324.88</v>
+        <v>371.13</v>
       </c>
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
@@ -14589,7 +14605,7 @@
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="39">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B579" s="20" t="s">
         <v>62</v>
@@ -14632,7 +14648,7 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="39">
-        <v>44593</v>
+        <v>44620</v>
       </c>
       <c r="B581" s="20" t="s">
         <v>63</v>
@@ -14658,7 +14674,7 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="39">
-        <v>44621</v>
+        <v>44651</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13">
@@ -14678,7 +14694,7 @@
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="39">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13">
@@ -14698,7 +14714,7 @@
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="39">
-        <v>44682</v>
+        <v>44712</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13">
@@ -14718,7 +14734,7 @@
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="39">
-        <v>44713</v>
+        <v>44742</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13">
@@ -14738,7 +14754,7 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="39">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13">
@@ -14758,7 +14774,7 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="39">
-        <v>44774</v>
+        <v>44804</v>
       </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13">
@@ -14778,7 +14794,7 @@
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="39">
-        <v>44805</v>
+        <v>44834</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13">
@@ -14798,7 +14814,7 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="39">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13">
@@ -14817,15 +14833,19 @@
       <c r="K589" s="20"/>
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A590" s="39"/>
+      <c r="A590" s="39">
+        <v>44895</v>
+      </c>
       <c r="B590" s="20"/>
-      <c r="C590" s="13"/>
+      <c r="C590" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D590" s="38"/>
       <c r="E590" s="9"/>
       <c r="F590" s="20"/>
-      <c r="G590" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G590" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H590" s="38"/>
       <c r="I590" s="9"/>
@@ -14833,15 +14853,19 @@
       <c r="K590" s="20"/>
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A591" s="39"/>
+      <c r="A591" s="39">
+        <v>44926</v>
+      </c>
       <c r="B591" s="20"/>
-      <c r="C591" s="13"/>
+      <c r="C591" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D591" s="38"/>
       <c r="E591" s="9"/>
       <c r="F591" s="20"/>
-      <c r="G591" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G591" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H591" s="38"/>
       <c r="I591" s="9"/>
@@ -14849,7 +14873,9 @@
       <c r="K591" s="20"/>
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A592" s="39"/>
+      <c r="A592" s="47" t="s">
+        <v>343</v>
+      </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
       <c r="D592" s="38"/>
@@ -14865,15 +14891,19 @@
       <c r="K592" s="20"/>
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A593" s="39"/>
+      <c r="A593" s="39">
+        <v>44957</v>
+      </c>
       <c r="B593" s="20"/>
-      <c r="C593" s="13"/>
+      <c r="C593" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D593" s="38"/>
       <c r="E593" s="9"/>
       <c r="F593" s="20"/>
-      <c r="G593" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G593" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H593" s="38"/>
       <c r="I593" s="9"/>
@@ -14881,15 +14911,19 @@
       <c r="K593" s="20"/>
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A594" s="39"/>
+      <c r="A594" s="39">
+        <v>44985</v>
+      </c>
       <c r="B594" s="20"/>
-      <c r="C594" s="13"/>
+      <c r="C594" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D594" s="38"/>
       <c r="E594" s="9"/>
       <c r="F594" s="20"/>
-      <c r="G594" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G594" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H594" s="38"/>
       <c r="I594" s="9"/>
@@ -14897,15 +14931,19 @@
       <c r="K594" s="20"/>
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A595" s="39"/>
+      <c r="A595" s="39">
+        <v>45016</v>
+      </c>
       <c r="B595" s="20"/>
-      <c r="C595" s="13"/>
+      <c r="C595" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D595" s="38"/>
       <c r="E595" s="9"/>
       <c r="F595" s="20"/>
-      <c r="G595" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G595" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H595" s="38"/>
       <c r="I595" s="9"/>
@@ -14913,15 +14951,19 @@
       <c r="K595" s="20"/>
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A596" s="39"/>
+      <c r="A596" s="39">
+        <v>45046</v>
+      </c>
       <c r="B596" s="20"/>
-      <c r="C596" s="13"/>
+      <c r="C596" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D596" s="38"/>
       <c r="E596" s="9"/>
       <c r="F596" s="20"/>
-      <c r="G596" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G596" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H596" s="38"/>
       <c r="I596" s="9"/>
@@ -14929,15 +14971,19 @@
       <c r="K596" s="20"/>
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A597" s="39"/>
+      <c r="A597" s="39">
+        <v>45077</v>
+      </c>
       <c r="B597" s="20"/>
-      <c r="C597" s="13"/>
+      <c r="C597" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D597" s="38"/>
       <c r="E597" s="9"/>
       <c r="F597" s="20"/>
-      <c r="G597" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G597" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H597" s="38"/>
       <c r="I597" s="9"/>
@@ -14945,15 +14991,19 @@
       <c r="K597" s="20"/>
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A598" s="39"/>
+      <c r="A598" s="39">
+        <v>45107</v>
+      </c>
       <c r="B598" s="20"/>
-      <c r="C598" s="13"/>
+      <c r="C598" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D598" s="38"/>
       <c r="E598" s="9"/>
       <c r="F598" s="20"/>
-      <c r="G598" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G598" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H598" s="38"/>
       <c r="I598" s="9"/>
@@ -14961,15 +15011,19 @@
       <c r="K598" s="20"/>
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A599" s="39"/>
+      <c r="A599" s="39">
+        <v>45138</v>
+      </c>
       <c r="B599" s="20"/>
-      <c r="C599" s="13"/>
+      <c r="C599" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D599" s="38"/>
       <c r="E599" s="9"/>
       <c r="F599" s="20"/>
-      <c r="G599" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G599" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H599" s="38"/>
       <c r="I599" s="9"/>
@@ -14977,15 +15031,19 @@
       <c r="K599" s="20"/>
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A600" s="39"/>
+      <c r="A600" s="39">
+        <v>45169</v>
+      </c>
       <c r="B600" s="20"/>
-      <c r="C600" s="13"/>
+      <c r="C600" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D600" s="38"/>
       <c r="E600" s="9"/>
       <c r="F600" s="20"/>
-      <c r="G600" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G600" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H600" s="38"/>
       <c r="I600" s="9"/>
@@ -14993,15 +15051,19 @@
       <c r="K600" s="20"/>
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A601" s="39"/>
+      <c r="A601" s="39">
+        <v>45199</v>
+      </c>
       <c r="B601" s="20"/>
-      <c r="C601" s="13"/>
+      <c r="C601" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D601" s="38"/>
       <c r="E601" s="9"/>
       <c r="F601" s="20"/>
-      <c r="G601" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G601" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H601" s="38"/>
       <c r="I601" s="9"/>
@@ -15009,15 +15071,19 @@
       <c r="K601" s="20"/>
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A602" s="39"/>
+      <c r="A602" s="39">
+        <v>45230</v>
+      </c>
       <c r="B602" s="20"/>
-      <c r="C602" s="13"/>
+      <c r="C602" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D602" s="38"/>
       <c r="E602" s="9"/>
       <c r="F602" s="20"/>
-      <c r="G602" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G602" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H602" s="38"/>
       <c r="I602" s="9"/>
@@ -15025,15 +15091,19 @@
       <c r="K602" s="20"/>
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A603" s="39"/>
+      <c r="A603" s="39">
+        <v>45260</v>
+      </c>
       <c r="B603" s="20"/>
-      <c r="C603" s="13"/>
+      <c r="C603" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D603" s="38"/>
       <c r="E603" s="9"/>
       <c r="F603" s="20"/>
-      <c r="G603" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G603" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H603" s="38"/>
       <c r="I603" s="9"/>
@@ -15041,15 +15111,23 @@
       <c r="K603" s="20"/>
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A604" s="39"/>
-      <c r="B604" s="20"/>
-      <c r="C604" s="13"/>
-      <c r="D604" s="38"/>
+      <c r="A604" s="39">
+        <v>45291</v>
+      </c>
+      <c r="B604" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C604" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D604" s="38">
+        <v>5</v>
+      </c>
       <c r="E604" s="9"/>
       <c r="F604" s="20"/>
-      <c r="G604" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G604" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H604" s="38"/>
       <c r="I604" s="9"/>
@@ -15057,7 +15135,9 @@
       <c r="K604" s="20"/>
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A605" s="39"/>
+      <c r="A605" s="47" t="s">
+        <v>344</v>
+      </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
       <c r="D605" s="38"/>
@@ -15073,15 +15153,19 @@
       <c r="K605" s="20"/>
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A606" s="39"/>
+      <c r="A606" s="39">
+        <v>45322</v>
+      </c>
       <c r="B606" s="20"/>
-      <c r="C606" s="13"/>
+      <c r="C606" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D606" s="38"/>
       <c r="E606" s="9"/>
       <c r="F606" s="20"/>
-      <c r="G606" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G606" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H606" s="38"/>
       <c r="I606" s="9"/>
@@ -15089,15 +15173,19 @@
       <c r="K606" s="20"/>
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A607" s="39"/>
+      <c r="A607" s="39">
+        <v>45351</v>
+      </c>
       <c r="B607" s="20"/>
-      <c r="C607" s="13"/>
+      <c r="C607" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D607" s="38"/>
       <c r="E607" s="9"/>
       <c r="F607" s="20"/>
-      <c r="G607" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G607" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H607" s="38"/>
       <c r="I607" s="9"/>
@@ -15105,15 +15193,19 @@
       <c r="K607" s="20"/>
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A608" s="39"/>
+      <c r="A608" s="39">
+        <v>45382</v>
+      </c>
       <c r="B608" s="20"/>
-      <c r="C608" s="13"/>
+      <c r="C608" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D608" s="38"/>
       <c r="E608" s="9"/>
       <c r="F608" s="20"/>
-      <c r="G608" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G608" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H608" s="38"/>
       <c r="I608" s="9"/>
@@ -15121,15 +15213,19 @@
       <c r="K608" s="20"/>
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A609" s="39"/>
+      <c r="A609" s="39">
+        <v>45412</v>
+      </c>
       <c r="B609" s="20"/>
-      <c r="C609" s="13"/>
+      <c r="C609" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D609" s="38"/>
       <c r="E609" s="9"/>
       <c r="F609" s="20"/>
-      <c r="G609" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G609" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H609" s="38"/>
       <c r="I609" s="9"/>
@@ -15137,15 +15233,19 @@
       <c r="K609" s="20"/>
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A610" s="39"/>
+      <c r="A610" s="39">
+        <v>45443</v>
+      </c>
       <c r="B610" s="20"/>
-      <c r="C610" s="13"/>
+      <c r="C610" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D610" s="38"/>
       <c r="E610" s="9"/>
       <c r="F610" s="20"/>
-      <c r="G610" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G610" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H610" s="38"/>
       <c r="I610" s="9"/>
@@ -15153,15 +15253,19 @@
       <c r="K610" s="20"/>
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A611" s="39"/>
+      <c r="A611" s="39">
+        <v>45473</v>
+      </c>
       <c r="B611" s="20"/>
-      <c r="C611" s="13"/>
+      <c r="C611" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D611" s="38"/>
       <c r="E611" s="9"/>
       <c r="F611" s="20"/>
-      <c r="G611" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G611" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H611" s="38"/>
       <c r="I611" s="9"/>
@@ -15169,15 +15273,19 @@
       <c r="K611" s="20"/>
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A612" s="39"/>
+      <c r="A612" s="39">
+        <v>45504</v>
+      </c>
       <c r="B612" s="20"/>
-      <c r="C612" s="13"/>
+      <c r="C612" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D612" s="38"/>
       <c r="E612" s="9"/>
       <c r="F612" s="20"/>
-      <c r="G612" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G612" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H612" s="38"/>
       <c r="I612" s="9"/>
@@ -15185,15 +15293,19 @@
       <c r="K612" s="20"/>
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A613" s="39"/>
+      <c r="A613" s="39">
+        <v>45535</v>
+      </c>
       <c r="B613" s="20"/>
-      <c r="C613" s="13"/>
+      <c r="C613" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D613" s="38"/>
       <c r="E613" s="9"/>
       <c r="F613" s="20"/>
-      <c r="G613" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G613" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H613" s="38"/>
       <c r="I613" s="9"/>
@@ -15201,15 +15313,19 @@
       <c r="K613" s="20"/>
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A614" s="39"/>
+      <c r="A614" s="39">
+        <v>45565</v>
+      </c>
       <c r="B614" s="20"/>
-      <c r="C614" s="13"/>
+      <c r="C614" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D614" s="38"/>
       <c r="E614" s="9"/>
       <c r="F614" s="20"/>
-      <c r="G614" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G614" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H614" s="38"/>
       <c r="I614" s="9"/>
@@ -15217,15 +15333,19 @@
       <c r="K614" s="20"/>
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A615" s="39"/>
+      <c r="A615" s="39">
+        <v>45596</v>
+      </c>
       <c r="B615" s="20"/>
-      <c r="C615" s="13"/>
+      <c r="C615" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D615" s="38"/>
       <c r="E615" s="9"/>
       <c r="F615" s="20"/>
-      <c r="G615" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G615" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H615" s="38"/>
       <c r="I615" s="9"/>
@@ -15233,15 +15353,19 @@
       <c r="K615" s="20"/>
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A616" s="39"/>
+      <c r="A616" s="39">
+        <v>45626</v>
+      </c>
       <c r="B616" s="20"/>
-      <c r="C616" s="13"/>
+      <c r="C616" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D616" s="38"/>
       <c r="E616" s="9"/>
       <c r="F616" s="20"/>
-      <c r="G616" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G616" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H616" s="38"/>
       <c r="I616" s="9"/>
@@ -15249,15 +15373,23 @@
       <c r="K616" s="20"/>
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A617" s="39"/>
-      <c r="B617" s="20"/>
-      <c r="C617" s="13"/>
-      <c r="D617" s="38"/>
+      <c r="A617" s="39">
+        <v>45657</v>
+      </c>
+      <c r="B617" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C617" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D617" s="38">
+        <v>5</v>
+      </c>
       <c r="E617" s="9"/>
       <c r="F617" s="20"/>
-      <c r="G617" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G617" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H617" s="38"/>
       <c r="I617" s="9"/>
@@ -15265,7 +15397,9 @@
       <c r="K617" s="20"/>
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A618" s="39"/>
+      <c r="A618" s="47" t="s">
+        <v>345</v>
+      </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
       <c r="D618" s="38"/>
@@ -15281,15 +15415,19 @@
       <c r="K618" s="20"/>
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A619" s="39"/>
+      <c r="A619" s="39">
+        <v>45688</v>
+      </c>
       <c r="B619" s="20"/>
-      <c r="C619" s="13"/>
+      <c r="C619" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D619" s="38"/>
       <c r="E619" s="9"/>
       <c r="F619" s="20"/>
-      <c r="G619" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G619" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H619" s="38"/>
       <c r="I619" s="9"/>
@@ -15297,15 +15435,19 @@
       <c r="K619" s="20"/>
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A620" s="39"/>
+      <c r="A620" s="39">
+        <v>45716</v>
+      </c>
       <c r="B620" s="20"/>
-      <c r="C620" s="13"/>
+      <c r="C620" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D620" s="38"/>
       <c r="E620" s="9"/>
       <c r="F620" s="20"/>
-      <c r="G620" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G620" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H620" s="38"/>
       <c r="I620" s="9"/>
@@ -15313,15 +15455,19 @@
       <c r="K620" s="20"/>
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A621" s="39"/>
+      <c r="A621" s="39">
+        <v>45747</v>
+      </c>
       <c r="B621" s="20"/>
-      <c r="C621" s="13"/>
+      <c r="C621" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D621" s="38"/>
       <c r="E621" s="9"/>
       <c r="F621" s="20"/>
-      <c r="G621" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G621" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H621" s="38"/>
       <c r="I621" s="9"/>
@@ -15329,15 +15475,19 @@
       <c r="K621" s="20"/>
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A622" s="39"/>
+      <c r="A622" s="39">
+        <v>45777</v>
+      </c>
       <c r="B622" s="20"/>
-      <c r="C622" s="13"/>
+      <c r="C622" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D622" s="38"/>
       <c r="E622" s="9"/>
       <c r="F622" s="20"/>
-      <c r="G622" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G622" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H622" s="38"/>
       <c r="I622" s="9"/>
@@ -15345,15 +15495,19 @@
       <c r="K622" s="20"/>
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A623" s="39"/>
+      <c r="A623" s="39">
+        <v>45808</v>
+      </c>
       <c r="B623" s="20"/>
-      <c r="C623" s="13"/>
+      <c r="C623" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D623" s="38"/>
       <c r="E623" s="9"/>
       <c r="F623" s="20"/>
-      <c r="G623" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G623" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H623" s="38"/>
       <c r="I623" s="9"/>
@@ -15361,15 +15515,19 @@
       <c r="K623" s="20"/>
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A624" s="39"/>
+      <c r="A624" s="39">
+        <v>45838</v>
+      </c>
       <c r="B624" s="20"/>
-      <c r="C624" s="13"/>
+      <c r="C624" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D624" s="38"/>
       <c r="E624" s="9"/>
       <c r="F624" s="20"/>
-      <c r="G624" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G624" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H624" s="38"/>
       <c r="I624" s="9"/>
@@ -15377,15 +15535,19 @@
       <c r="K624" s="20"/>
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A625" s="39"/>
+      <c r="A625" s="39">
+        <v>45869</v>
+      </c>
       <c r="B625" s="20"/>
-      <c r="C625" s="13"/>
+      <c r="C625" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D625" s="38"/>
       <c r="E625" s="9"/>
       <c r="F625" s="20"/>
-      <c r="G625" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G625" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H625" s="38"/>
       <c r="I625" s="9"/>
@@ -15393,15 +15555,19 @@
       <c r="K625" s="20"/>
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A626" s="39"/>
+      <c r="A626" s="39">
+        <v>45900</v>
+      </c>
       <c r="B626" s="20"/>
-      <c r="C626" s="13"/>
+      <c r="C626" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D626" s="38"/>
       <c r="E626" s="9"/>
       <c r="F626" s="20"/>
-      <c r="G626" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G626" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H626" s="38"/>
       <c r="I626" s="9"/>
@@ -15409,15 +15575,19 @@
       <c r="K626" s="20"/>
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A627" s="39"/>
+      <c r="A627" s="39">
+        <v>45930</v>
+      </c>
       <c r="B627" s="20"/>
-      <c r="C627" s="13"/>
+      <c r="C627" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D627" s="38"/>
       <c r="E627" s="9"/>
       <c r="F627" s="20"/>
-      <c r="G627" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G627" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H627" s="38"/>
       <c r="I627" s="9"/>
@@ -15425,15 +15595,19 @@
       <c r="K627" s="20"/>
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A628" s="39"/>
+      <c r="A628" s="39">
+        <v>45961</v>
+      </c>
       <c r="B628" s="20"/>
-      <c r="C628" s="13"/>
+      <c r="C628" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D628" s="38"/>
       <c r="E628" s="9"/>
       <c r="F628" s="20"/>
-      <c r="G628" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G628" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H628" s="38"/>
       <c r="I628" s="9"/>
@@ -15441,15 +15615,19 @@
       <c r="K628" s="20"/>
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A629" s="39"/>
+      <c r="A629" s="39">
+        <v>45991</v>
+      </c>
       <c r="B629" s="20"/>
-      <c r="C629" s="13"/>
+      <c r="C629" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D629" s="38"/>
       <c r="E629" s="9"/>
       <c r="F629" s="20"/>
-      <c r="G629" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G629" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H629" s="38"/>
       <c r="I629" s="9"/>
@@ -15681,20 +15859,68 @@
       <c r="K643" s="20"/>
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A644" s="40"/>
-      <c r="B644" s="15"/>
-      <c r="C644" s="41"/>
-      <c r="D644" s="42"/>
+      <c r="A644" s="39"/>
+      <c r="B644" s="20"/>
+      <c r="C644" s="13"/>
+      <c r="D644" s="38"/>
       <c r="E644" s="9"/>
-      <c r="F644" s="15"/>
-      <c r="G644" s="41" t="str">
+      <c r="F644" s="20"/>
+      <c r="G644" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H644" s="42"/>
+      <c r="H644" s="38"/>
       <c r="I644" s="9"/>
-      <c r="J644" s="12"/>
-      <c r="K644" s="15"/>
+      <c r="J644" s="11"/>
+      <c r="K644" s="20"/>
+    </row>
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A645" s="39"/>
+      <c r="B645" s="20"/>
+      <c r="C645" s="13"/>
+      <c r="D645" s="38"/>
+      <c r="E645" s="9"/>
+      <c r="F645" s="20"/>
+      <c r="G645" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H645" s="38"/>
+      <c r="I645" s="9"/>
+      <c r="J645" s="11"/>
+      <c r="K645" s="20"/>
+    </row>
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A646" s="39"/>
+      <c r="B646" s="20"/>
+      <c r="C646" s="13"/>
+      <c r="D646" s="38"/>
+      <c r="E646" s="9"/>
+      <c r="F646" s="20"/>
+      <c r="G646" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H646" s="38"/>
+      <c r="I646" s="9"/>
+      <c r="J646" s="11"/>
+      <c r="K646" s="20"/>
+    </row>
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A647" s="40"/>
+      <c r="B647" s="15"/>
+      <c r="C647" s="41"/>
+      <c r="D647" s="42"/>
+      <c r="E647" s="9"/>
+      <c r="F647" s="15"/>
+      <c r="G647" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H647" s="42"/>
+      <c r="I647" s="9"/>
+      <c r="J647" s="12"/>
+      <c r="K647" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -15740,8 +15966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15867,7 +16093,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>438.35599999999982</v>
+        <v>520.85599999999977</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>
